--- a/TestData/DataFile.xlsx
+++ b/TestData/DataFile.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="48">
   <si>
     <t>Recipient's Name</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Living Room Sets</t>
+  </si>
+  <si>
+    <t>Chair</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>33</v>
